--- a/public/media/excel-import/Plantilla - Importar productos.xlsx
+++ b/public/media/excel-import/Plantilla - Importar productos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_7.3.6\htdocs\xampp\korimangastore\public\media\excel-import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Baeza\Documents\kori\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F36068-73B0-464A-A227-4EED83EE7C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0FD6A6-6AC2-4D4F-BEE1-014EBBDCB649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{669A7B0E-D1FB-4FEE-85BB-E0260D4E428E}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{669A7B0E-D1FB-4FEE-85BB-E0260D4E428E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -55,6 +55,9 @@
     <t>Stock</t>
   </si>
   <si>
+    <t>Sucursal galería caraco;kori</t>
+  </si>
+  <si>
     <t>5;8</t>
   </si>
   <si>
@@ -101,9 +104,6 @@
   </si>
   <si>
     <t>Mix</t>
-  </si>
-  <si>
-    <t>Sucursal galería caracol;kori</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -511,10 +511,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -525,80 +525,80 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>1234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2">
         <v>1235</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2">
         <v>1236</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/public/media/excel-import/Plantilla - Importar productos.xlsx
+++ b/public/media/excel-import/Plantilla - Importar productos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Baeza\Documents\kori\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\xampp\korimangastore\public\media\excel-import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0FD6A6-6AC2-4D4F-BEE1-014EBBDCB649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A674A5-ADB2-4AD3-8AA2-B25A59DE904F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{669A7B0E-D1FB-4FEE-85BB-E0260D4E428E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{669A7B0E-D1FB-4FEE-85BB-E0260D4E428E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="23">
   <si>
     <t>Nombre</t>
   </si>
@@ -110,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +122,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="&quot;Helvetica LT Std&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -165,10 +173,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,15 +492,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F51D64-4994-4A11-843E-A0FF27C54B67}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" customWidth="1"/>
@@ -601,6 +611,331 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="F26" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/media/excel-import/Plantilla - Importar productos.xlsx
+++ b/public/media/excel-import/Plantilla - Importar productos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\xampp\korimangastore\public\media\excel-import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Baeza\Documents\kori\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A674A5-ADB2-4AD3-8AA2-B25A59DE904F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0FD6A6-6AC2-4D4F-BEE1-014EBBDCB649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{669A7B0E-D1FB-4FEE-85BB-E0260D4E428E}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{669A7B0E-D1FB-4FEE-85BB-E0260D4E428E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Nombre</t>
   </si>
@@ -110,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,14 +122,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="&quot;Helvetica LT Std&quot;"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -173,11 +165,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,16 +483,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F51D64-4994-4A11-843E-A0FF27C54B67}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" customWidth="1"/>
@@ -611,331 +601,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="F26" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
